--- a/resultsEST200-299.xlsx
+++ b/resultsEST200-299.xlsx
@@ -3261,10 +3261,10 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>12162</v>
+        <v>1537</v>
       </c>
       <c r="C202" t="n">
-        <v>16.94385194778442</v>
+        <v>0.7718706130981445</v>
       </c>
       <c r="D202" t="n">
         <v>1</v>
@@ -3275,10 +3275,10 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>9357</v>
+        <v>1748</v>
       </c>
       <c r="C203" t="n">
-        <v>12.71222805976868</v>
+        <v>0.8732006549835205</v>
       </c>
       <c r="D203" t="n">
         <v>1</v>
@@ -3289,10 +3289,10 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>20700</v>
+        <v>2906</v>
       </c>
       <c r="C204" t="n">
-        <v>48.9852991104126</v>
+        <v>1.624788045883179</v>
       </c>
       <c r="D204" t="n">
         <v>1</v>
@@ -3303,10 +3303,10 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>18524</v>
+        <v>9435</v>
       </c>
       <c r="C205" t="n">
-        <v>37.86112070083618</v>
+        <v>9.90837287902832</v>
       </c>
       <c r="D205" t="n">
         <v>1</v>
@@ -3317,10 +3317,10 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>10366</v>
+        <v>3980</v>
       </c>
       <c r="C206" t="n">
-        <v>15.14020729064941</v>
+        <v>2.881757497787476</v>
       </c>
       <c r="D206" t="n">
         <v>1</v>
@@ -3331,10 +3331,10 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>14949</v>
+        <v>9161</v>
       </c>
       <c r="C207" t="n">
-        <v>26.33461689949036</v>
+        <v>10.11763405799866</v>
       </c>
       <c r="D207" t="n">
         <v>1</v>
@@ -3345,10 +3345,10 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>4551</v>
+        <v>4384</v>
       </c>
       <c r="C208" t="n">
-        <v>4.516403913497925</v>
+        <v>3.039589643478394</v>
       </c>
       <c r="D208" t="n">
         <v>1</v>
@@ -3359,10 +3359,10 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>24110</v>
+        <v>1368</v>
       </c>
       <c r="C209" t="n">
-        <v>59.64060306549072</v>
+        <v>0.8540494441986084</v>
       </c>
       <c r="D209" t="n">
         <v>1</v>
@@ -3373,10 +3373,10 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>19847</v>
+        <v>2853</v>
       </c>
       <c r="C210" t="n">
-        <v>42.00438570976257</v>
+        <v>1.882181882858276</v>
       </c>
       <c r="D210" t="n">
         <v>1</v>
@@ -3387,10 +3387,10 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>5842</v>
+        <v>11676</v>
       </c>
       <c r="C211" t="n">
-        <v>5.760001420974731</v>
+        <v>15.58777832984924</v>
       </c>
       <c r="D211" t="n">
         <v>1</v>
@@ -3401,10 +3401,10 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>5523</v>
+        <v>3812</v>
       </c>
       <c r="C212" t="n">
-        <v>5.959832429885864</v>
+        <v>2.715559005737305</v>
       </c>
       <c r="D212" t="n">
         <v>1</v>
@@ -3415,10 +3415,10 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>6242</v>
+        <v>19975</v>
       </c>
       <c r="C213" t="n">
-        <v>6.959497690200806</v>
+        <v>43.01579236984253</v>
       </c>
       <c r="D213" t="n">
         <v>1</v>
@@ -3429,10 +3429,10 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>9828</v>
+        <v>2474</v>
       </c>
       <c r="C214" t="n">
-        <v>13.66835832595825</v>
+        <v>1.634118318557739</v>
       </c>
       <c r="D214" t="n">
         <v>1</v>
@@ -3443,10 +3443,10 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>11573</v>
+        <v>5324</v>
       </c>
       <c r="C215" t="n">
-        <v>18.00593209266663</v>
+        <v>4.47121000289917</v>
       </c>
       <c r="D215" t="n">
         <v>1</v>
@@ -3457,10 +3457,10 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>9429</v>
+        <v>5457</v>
       </c>
       <c r="C216" t="n">
-        <v>12.00834965705872</v>
+        <v>4.495755434036255</v>
       </c>
       <c r="D216" t="n">
         <v>1</v>
@@ -3471,10 +3471,10 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>17145</v>
+        <v>10629</v>
       </c>
       <c r="C217" t="n">
-        <v>33.12402534484863</v>
+        <v>13.41584444046021</v>
       </c>
       <c r="D217" t="n">
         <v>1</v>
@@ -3485,10 +3485,10 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>3345</v>
+        <v>2528</v>
       </c>
       <c r="C218" t="n">
-        <v>3.359388828277588</v>
+        <v>1.444885730743408</v>
       </c>
       <c r="D218" t="n">
         <v>1</v>
@@ -3499,10 +3499,10 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>3635</v>
+        <v>3127</v>
       </c>
       <c r="C219" t="n">
-        <v>3.458807706832886</v>
+        <v>1.333049774169922</v>
       </c>
       <c r="D219" t="n">
         <v>1</v>
@@ -3513,10 +3513,10 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>5844</v>
+        <v>3061</v>
       </c>
       <c r="C220" t="n">
-        <v>6.462084531784058</v>
+        <v>1.878376483917236</v>
       </c>
       <c r="D220" t="n">
         <v>1</v>
@@ -3527,10 +3527,10 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>21704</v>
+        <v>9802</v>
       </c>
       <c r="C221" t="n">
-        <v>49.038578748703</v>
+        <v>10.47914052009583</v>
       </c>
       <c r="D221" t="n">
         <v>1</v>
@@ -3541,10 +3541,10 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>7905</v>
+        <v>11050</v>
       </c>
       <c r="C222" t="n">
-        <v>6.90310263633728</v>
+        <v>12.16622686386108</v>
       </c>
       <c r="D222" t="n">
         <v>1</v>
@@ -3555,10 +3555,10 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>8560</v>
+        <v>8363</v>
       </c>
       <c r="C223" t="n">
-        <v>11.07749962806702</v>
+        <v>7.687073707580566</v>
       </c>
       <c r="D223" t="n">
         <v>1</v>
@@ -3569,10 +3569,10 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>22796</v>
+        <v>1089</v>
       </c>
       <c r="C224" t="n">
-        <v>47.45721864700317</v>
+        <v>0.295243501663208</v>
       </c>
       <c r="D224" t="n">
         <v>1</v>
@@ -3583,13 +3583,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>23746</v>
+        <v>9478</v>
       </c>
       <c r="C225" t="n">
-        <v>60.0012195110321</v>
+        <v>9.774614334106445</v>
       </c>
       <c r="D225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -3597,10 +3597,10 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>5966</v>
+        <v>3351</v>
       </c>
       <c r="C226" t="n">
-        <v>6.369012117385864</v>
+        <v>2.010892629623413</v>
       </c>
       <c r="D226" t="n">
         <v>1</v>
@@ -3611,10 +3611,10 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>3854</v>
+        <v>9283</v>
       </c>
       <c r="C227" t="n">
-        <v>2.902872800827026</v>
+        <v>9.715269565582275</v>
       </c>
       <c r="D227" t="n">
         <v>1</v>
@@ -3625,10 +3625,10 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>14323</v>
+        <v>23555</v>
       </c>
       <c r="C228" t="n">
-        <v>23.25897145271301</v>
+        <v>50.18421578407288</v>
       </c>
       <c r="D228" t="n">
         <v>1</v>
@@ -3639,10 +3639,10 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>22899</v>
+        <v>4098</v>
       </c>
       <c r="C229" t="n">
-        <v>55.64014625549316</v>
+        <v>2.361819505691528</v>
       </c>
       <c r="D229" t="n">
         <v>1</v>
@@ -3653,10 +3653,10 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>3056</v>
+        <v>6334</v>
       </c>
       <c r="C230" t="n">
-        <v>2.763552188873291</v>
+        <v>4.515548944473267</v>
       </c>
       <c r="D230" t="n">
         <v>1</v>
@@ -3667,10 +3667,10 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>2763</v>
+        <v>4002</v>
       </c>
       <c r="C231" t="n">
-        <v>2.522923231124878</v>
+        <v>2.453101396560669</v>
       </c>
       <c r="D231" t="n">
         <v>1</v>
@@ -3681,10 +3681,10 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>12648</v>
+        <v>8028</v>
       </c>
       <c r="C232" t="n">
-        <v>20.64989352226257</v>
+        <v>7.034000158309937</v>
       </c>
       <c r="D232" t="n">
         <v>1</v>
@@ -3695,10 +3695,10 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>12141</v>
+        <v>511</v>
       </c>
       <c r="C233" t="n">
-        <v>19.77149510383606</v>
+        <v>0.1745448112487793</v>
       </c>
       <c r="D233" t="n">
         <v>1</v>
@@ -3709,10 +3709,10 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>6785</v>
+        <v>4305</v>
       </c>
       <c r="C234" t="n">
-        <v>7.361710071563721</v>
+        <v>2.689745664596558</v>
       </c>
       <c r="D234" t="n">
         <v>1</v>
@@ -3723,10 +3723,10 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>9811</v>
+        <v>4993</v>
       </c>
       <c r="C235" t="n">
-        <v>13.99847650527954</v>
+        <v>3.431664228439331</v>
       </c>
       <c r="D235" t="n">
         <v>1</v>
@@ -3737,10 +3737,10 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>3198</v>
+        <v>706</v>
       </c>
       <c r="C236" t="n">
-        <v>3.210973024368286</v>
+        <v>0.2728095054626465</v>
       </c>
       <c r="D236" t="n">
         <v>1</v>
@@ -3751,10 +3751,10 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>18628</v>
+        <v>8314</v>
       </c>
       <c r="C237" t="n">
-        <v>39.30570268630981</v>
+        <v>7.603698253631592</v>
       </c>
       <c r="D237" t="n">
         <v>1</v>
@@ -3765,10 +3765,10 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>16375</v>
+        <v>4122</v>
       </c>
       <c r="C238" t="n">
-        <v>30.86646819114685</v>
+        <v>2.264414548873901</v>
       </c>
       <c r="D238" t="n">
         <v>1</v>
@@ -3779,10 +3779,10 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>15542</v>
+        <v>20437</v>
       </c>
       <c r="C239" t="n">
-        <v>28.65680980682373</v>
+        <v>38.57143521308899</v>
       </c>
       <c r="D239" t="n">
         <v>1</v>
@@ -3793,10 +3793,10 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>14388</v>
+        <v>8045</v>
       </c>
       <c r="C240" t="n">
-        <v>26.43448567390442</v>
+        <v>6.867434978485107</v>
       </c>
       <c r="D240" t="n">
         <v>1</v>
@@ -3807,10 +3807,10 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>944</v>
+        <v>747</v>
       </c>
       <c r="C241" t="n">
-        <v>0.7542569637298584</v>
+        <v>0.3430116176605225</v>
       </c>
       <c r="D241" t="n">
         <v>1</v>
@@ -3821,10 +3821,10 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>5651</v>
+        <v>1157</v>
       </c>
       <c r="C242" t="n">
-        <v>5.593737602233887</v>
+        <v>0.3716356754302979</v>
       </c>
       <c r="D242" t="n">
         <v>1</v>
@@ -3835,10 +3835,10 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>5179</v>
+        <v>6478</v>
       </c>
       <c r="C243" t="n">
-        <v>5.451494216918945</v>
+        <v>4.722816944122314</v>
       </c>
       <c r="D243" t="n">
         <v>1</v>
@@ -3849,13 +3849,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>26897</v>
+        <v>6809</v>
       </c>
       <c r="C244" t="n">
-        <v>60.00042033195496</v>
+        <v>4.339688777923584</v>
       </c>
       <c r="D244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -3863,10 +3863,10 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>19046</v>
+        <v>12019</v>
       </c>
       <c r="C245" t="n">
-        <v>38.30460667610168</v>
+        <v>13.74567031860352</v>
       </c>
       <c r="D245" t="n">
         <v>1</v>
@@ -3877,10 +3877,10 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>17143</v>
+        <v>1771</v>
       </c>
       <c r="C246" t="n">
-        <v>33.18800187110901</v>
+        <v>0.9404408931732178</v>
       </c>
       <c r="D246" t="n">
         <v>1</v>
@@ -3891,10 +3891,10 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>18484</v>
+        <v>7726</v>
       </c>
       <c r="C247" t="n">
-        <v>35.34592270851135</v>
+        <v>7.326365232467651</v>
       </c>
       <c r="D247" t="n">
         <v>1</v>
@@ -3905,10 +3905,10 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>19393</v>
+        <v>3887</v>
       </c>
       <c r="C248" t="n">
-        <v>39.58544301986694</v>
+        <v>2.703219652175903</v>
       </c>
       <c r="D248" t="n">
         <v>1</v>
@@ -3919,10 +3919,10 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>19841</v>
+        <v>11623</v>
       </c>
       <c r="C249" t="n">
-        <v>41.23982501029968</v>
+        <v>13.80415940284729</v>
       </c>
       <c r="D249" t="n">
         <v>1</v>
@@ -3933,13 +3933,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>23746</v>
+        <v>9558</v>
       </c>
       <c r="C250" t="n">
-        <v>60.00457501411438</v>
+        <v>8.711540699005127</v>
       </c>
       <c r="D250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -3947,10 +3947,10 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>14154</v>
+        <v>1406</v>
       </c>
       <c r="C251" t="n">
-        <v>23.26866245269775</v>
+        <v>0.4971628189086914</v>
       </c>
       <c r="D251" t="n">
         <v>1</v>
@@ -3961,13 +3961,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>23446</v>
+        <v>5346</v>
       </c>
       <c r="C252" t="n">
-        <v>60.00343823432922</v>
+        <v>3.22569727897644</v>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -3975,10 +3975,10 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>9827</v>
+        <v>7336</v>
       </c>
       <c r="C253" t="n">
-        <v>12.93966436386108</v>
+        <v>8.07194995880127</v>
       </c>
       <c r="D253" t="n">
         <v>1</v>
@@ -3989,10 +3989,10 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>3125</v>
+        <v>929</v>
       </c>
       <c r="C254" t="n">
-        <v>3.008923768997192</v>
+        <v>0.4008622169494629</v>
       </c>
       <c r="D254" t="n">
         <v>1</v>
@@ -4003,10 +4003,10 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>9417</v>
+        <v>3108</v>
       </c>
       <c r="C255" t="n">
-        <v>11.69662165641785</v>
+        <v>1.669046401977539</v>
       </c>
       <c r="D255" t="n">
         <v>1</v>
@@ -4017,10 +4017,10 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>8191</v>
+        <v>987</v>
       </c>
       <c r="C256" t="n">
-        <v>10.14507532119751</v>
+        <v>0.303565502166748</v>
       </c>
       <c r="D256" t="n">
         <v>1</v>
@@ -4031,10 +4031,10 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>12736</v>
+        <v>4472</v>
       </c>
       <c r="C257" t="n">
-        <v>20.77330207824707</v>
+        <v>3.398208856582642</v>
       </c>
       <c r="D257" t="n">
         <v>1</v>
@@ -4045,10 +4045,10 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>3680</v>
+        <v>5488</v>
       </c>
       <c r="C258" t="n">
-        <v>3.709492206573486</v>
+        <v>4.856003046035767</v>
       </c>
       <c r="D258" t="n">
         <v>1</v>
@@ -4059,10 +4059,10 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>3411</v>
+        <v>1030</v>
       </c>
       <c r="C259" t="n">
-        <v>3.202689170837402</v>
+        <v>0.4567477703094482</v>
       </c>
       <c r="D259" t="n">
         <v>1</v>
@@ -4073,10 +4073,10 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>13652</v>
+        <v>4794</v>
       </c>
       <c r="C260" t="n">
-        <v>18.35292053222656</v>
+        <v>2.370518684387207</v>
       </c>
       <c r="D260" t="n">
         <v>1</v>
@@ -4087,10 +4087,10 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>3278</v>
+        <v>1360</v>
       </c>
       <c r="C261" t="n">
-        <v>2.452658414840698</v>
+        <v>0.5222876071929932</v>
       </c>
       <c r="D261" t="n">
         <v>1</v>
@@ -4104,7 +4104,7 @@
         <v>10676</v>
       </c>
       <c r="C262" t="n">
-        <v>15.85779738426208</v>
+        <v>11.58659934997559</v>
       </c>
       <c r="D262" t="n">
         <v>1</v>
@@ -4115,10 +4115,10 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>9446</v>
+        <v>5666</v>
       </c>
       <c r="C263" t="n">
-        <v>12.54427003860474</v>
+        <v>4.741200923919678</v>
       </c>
       <c r="D263" t="n">
         <v>1</v>
@@ -4129,10 +4129,10 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>12945</v>
+        <v>9316</v>
       </c>
       <c r="C264" t="n">
-        <v>20.56493258476257</v>
+        <v>10.93622636795044</v>
       </c>
       <c r="D264" t="n">
         <v>1</v>
@@ -4143,10 +4143,10 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>13126</v>
+        <v>5789</v>
       </c>
       <c r="C265" t="n">
-        <v>22.52488207817078</v>
+        <v>4.467854022979736</v>
       </c>
       <c r="D265" t="n">
         <v>1</v>
@@ -4157,13 +4157,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>7690</v>
+        <v>25053</v>
       </c>
       <c r="C266" t="n">
-        <v>9.317030429840088</v>
+        <v>60.00302410125732</v>
       </c>
       <c r="D266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -4171,10 +4171,10 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>10814</v>
+        <v>7993</v>
       </c>
       <c r="C267" t="n">
-        <v>15.92959094047546</v>
+        <v>7.092535495758057</v>
       </c>
       <c r="D267" t="n">
         <v>1</v>
@@ -4185,13 +4185,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>23983</v>
+        <v>4653</v>
       </c>
       <c r="C268" t="n">
-        <v>60.00546002388</v>
+        <v>3.052749872207642</v>
       </c>
       <c r="D268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -4199,13 +4199,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>23699</v>
+        <v>2765</v>
       </c>
       <c r="C269" t="n">
-        <v>60.00053334236145</v>
+        <v>1.416789293289185</v>
       </c>
       <c r="D269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -4213,13 +4213,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>23932</v>
+        <v>2235</v>
       </c>
       <c r="C270" t="n">
-        <v>60.0004563331604</v>
+        <v>0.8996939659118652</v>
       </c>
       <c r="D270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -4227,10 +4227,10 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>2024</v>
+        <v>14262</v>
       </c>
       <c r="C271" t="n">
-        <v>1.822870969772339</v>
+        <v>21.42769384384155</v>
       </c>
       <c r="D271" t="n">
         <v>1</v>
@@ -4241,10 +4241,10 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>4070</v>
+        <v>1339</v>
       </c>
       <c r="C272" t="n">
-        <v>4.032708883285522</v>
+        <v>0.4966344833374023</v>
       </c>
       <c r="D272" t="n">
         <v>1</v>
@@ -4255,10 +4255,10 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>11121</v>
+        <v>15188</v>
       </c>
       <c r="C273" t="n">
-        <v>15.08090162277222</v>
+        <v>23.69496846199036</v>
       </c>
       <c r="D273" t="n">
         <v>1</v>
@@ -4269,10 +4269,10 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>18021</v>
+        <v>9504</v>
       </c>
       <c r="C274" t="n">
-        <v>34.23320484161377</v>
+        <v>10.50045824050903</v>
       </c>
       <c r="D274" t="n">
         <v>1</v>
@@ -4283,10 +4283,10 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>3127</v>
+        <v>3972</v>
       </c>
       <c r="C275" t="n">
-        <v>2.740296125411987</v>
+        <v>2.626878976821899</v>
       </c>
       <c r="D275" t="n">
         <v>1</v>
@@ -4297,10 +4297,10 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>10281</v>
+        <v>9588</v>
       </c>
       <c r="C276" t="n">
-        <v>13.9093325138092</v>
+        <v>9.237613677978516</v>
       </c>
       <c r="D276" t="n">
         <v>1</v>
@@ -4311,10 +4311,10 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>6524</v>
+        <v>6689</v>
       </c>
       <c r="C277" t="n">
-        <v>3.587531328201294</v>
+        <v>6.771347761154175</v>
       </c>
       <c r="D277" t="n">
         <v>1</v>
@@ -4325,13 +4325,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>23586</v>
+        <v>4112</v>
       </c>
       <c r="C278" t="n">
-        <v>60.00318193435669</v>
+        <v>2.830191612243652</v>
       </c>
       <c r="D278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -4339,10 +4339,10 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>10516</v>
+        <v>3248</v>
       </c>
       <c r="C279" t="n">
-        <v>13.19501638412476</v>
+        <v>1.855069398880005</v>
       </c>
       <c r="D279" t="n">
         <v>1</v>
@@ -4353,10 +4353,10 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>4737</v>
+        <v>3816</v>
       </c>
       <c r="C280" t="n">
-        <v>3.474997520446777</v>
+        <v>2.355343341827393</v>
       </c>
       <c r="D280" t="n">
         <v>1</v>
@@ -4367,10 +4367,10 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>20088</v>
+        <v>4850</v>
       </c>
       <c r="C281" t="n">
-        <v>39.72426152229309</v>
+        <v>3.203450202941895</v>
       </c>
       <c r="D281" t="n">
         <v>1</v>
@@ -4381,10 +4381,10 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>5521</v>
+        <v>2659</v>
       </c>
       <c r="C282" t="n">
-        <v>6.056599140167236</v>
+        <v>1.279846668243408</v>
       </c>
       <c r="D282" t="n">
         <v>1</v>
@@ -4395,10 +4395,10 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>11050</v>
+        <v>24527</v>
       </c>
       <c r="C283" t="n">
-        <v>16.05197620391846</v>
+        <v>55.60902070999146</v>
       </c>
       <c r="D283" t="n">
         <v>1</v>
@@ -4409,10 +4409,10 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>3184</v>
+        <v>4768</v>
       </c>
       <c r="C284" t="n">
-        <v>2.038415431976318</v>
+        <v>3.208128690719604</v>
       </c>
       <c r="D284" t="n">
         <v>1</v>
@@ -4423,13 +4423,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>24497</v>
+        <v>20440</v>
       </c>
       <c r="C285" t="n">
-        <v>60.00481986999512</v>
+        <v>38.82545948028564</v>
       </c>
       <c r="D285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -4437,10 +4437,10 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>182</v>
+        <v>8797</v>
       </c>
       <c r="C286" t="n">
-        <v>0.1434926986694336</v>
+        <v>8.277260303497314</v>
       </c>
       <c r="D286" t="n">
         <v>1</v>
@@ -4451,10 +4451,10 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>21065</v>
+        <v>2003</v>
       </c>
       <c r="C287" t="n">
-        <v>51.51998972892761</v>
+        <v>0.8834660053253174</v>
       </c>
       <c r="D287" t="n">
         <v>1</v>
@@ -4465,10 +4465,10 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>8812</v>
+        <v>8417</v>
       </c>
       <c r="C288" t="n">
-        <v>11.82301235198975</v>
+        <v>7.813794851303101</v>
       </c>
       <c r="D288" t="n">
         <v>1</v>
@@ -4479,10 +4479,10 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>9311</v>
+        <v>2907</v>
       </c>
       <c r="C289" t="n">
-        <v>12.04957866668701</v>
+        <v>1.306690454483032</v>
       </c>
       <c r="D289" t="n">
         <v>1</v>
@@ -4493,13 +4493,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>5675</v>
+        <v>26792</v>
       </c>
       <c r="C290" t="n">
-        <v>5.687311410903931</v>
+        <v>60.00456547737122</v>
       </c>
       <c r="D290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -4507,10 +4507,10 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>16502</v>
+        <v>7825</v>
       </c>
       <c r="C291" t="n">
-        <v>32.51726007461548</v>
+        <v>6.064299821853638</v>
       </c>
       <c r="D291" t="n">
         <v>1</v>
@@ -4521,13 +4521,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>24986</v>
+        <v>2062</v>
       </c>
       <c r="C292" t="n">
-        <v>60.00412583351135</v>
+        <v>0.7566604614257812</v>
       </c>
       <c r="D292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -4535,10 +4535,10 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>6469</v>
+        <v>1062</v>
       </c>
       <c r="C293" t="n">
-        <v>5.872693061828613</v>
+        <v>0.3848831653594971</v>
       </c>
       <c r="D293" t="n">
         <v>1</v>
@@ -4549,10 +4549,10 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>9829</v>
+        <v>3184</v>
       </c>
       <c r="C294" t="n">
-        <v>12.28085875511169</v>
+        <v>1.201053380966187</v>
       </c>
       <c r="D294" t="n">
         <v>1</v>
@@ -4563,10 +4563,10 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>9814</v>
+        <v>2417</v>
       </c>
       <c r="C295" t="n">
-        <v>11.43915605545044</v>
+        <v>0.8760776519775391</v>
       </c>
       <c r="D295" t="n">
         <v>1</v>
@@ -4577,10 +4577,10 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>3890</v>
+        <v>6241</v>
       </c>
       <c r="C296" t="n">
-        <v>2.154736518859863</v>
+        <v>3.969612598419189</v>
       </c>
       <c r="D296" t="n">
         <v>1</v>
@@ -4591,10 +4591,10 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>8809</v>
+        <v>4784</v>
       </c>
       <c r="C297" t="n">
-        <v>9.931018352508545</v>
+        <v>2.708643198013306</v>
       </c>
       <c r="D297" t="n">
         <v>1</v>
@@ -4605,10 +4605,10 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>4343</v>
+        <v>1820</v>
       </c>
       <c r="C298" t="n">
-        <v>3.523882150650024</v>
+        <v>0.6968178749084473</v>
       </c>
       <c r="D298" t="n">
         <v>1</v>
@@ -4619,10 +4619,10 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>14548</v>
+        <v>2265</v>
       </c>
       <c r="C299" t="n">
-        <v>21.59597826004028</v>
+        <v>0.8960909843444824</v>
       </c>
       <c r="D299" t="n">
         <v>1</v>
@@ -4633,10 +4633,10 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>2462</v>
+        <v>3153</v>
       </c>
       <c r="C300" t="n">
-        <v>1.832021713256836</v>
+        <v>1.296282768249512</v>
       </c>
       <c r="D300" t="n">
         <v>1</v>
@@ -4647,10 +4647,10 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>2757</v>
+        <v>1529</v>
       </c>
       <c r="C301" t="n">
-        <v>2.17542290687561</v>
+        <v>0.5607259273529053</v>
       </c>
       <c r="D301" t="n">
         <v>1</v>
@@ -4700,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3</v>
+        <v>0.3266666666666667</v>
       </c>
     </row>
   </sheetData>
